--- a/BackTest/2020-01-23 BackTest XLM.xlsx
+++ b/BackTest/2020-01-23 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-327476.4558778999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-327486.4558778999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-327486.4558778999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-326938.4172778999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-326928.4172778999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-324224.2261778999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-324234.2261778999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-324234.2261778999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-324095.3372778999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-324105.3372778999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-324105.3372778999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-324105.3372778999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-306050.9718778999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-313541.8187778999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-313544.2873778999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-313544.2873778999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-313504.2873778999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-313504.2873778999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-313484.2873778999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-313484.2873778999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-334154.82686268</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-334154.82686268</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-376627.0003626799</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2035,14 +2035,10 @@
         <v>-932695.94519306</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="J50" t="n">
-        <v>71.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
@@ -2075,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2111,19 +2101,11 @@
         <v>-924271.11749306</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="J52" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2449,7 +2431,7 @@
         <v>-915053.8479199099</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2515,7 +2497,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2647,7 +2629,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4561,14 +4543,10 @@
         <v>-1054809.88683676</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>71.81999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4598,19 +4576,11 @@
         <v>-1054809.88683676</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="J127" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4678,19 +4642,11 @@
         <v>-1134502.11603676</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4719,19 +4675,11 @@
         <v>-1156483.43683676</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4763,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4799,19 +4741,11 @@
         <v>-1211399.74763676</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>71.72</v>
-      </c>
-      <c r="J132" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4843,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4882,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4921,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4960,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4999,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5038,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5077,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5116,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5155,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5194,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5233,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5272,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5311,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5347,19 +5203,11 @@
         <v>-1257002.631520959</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="J146" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5391,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5427,19 +5269,11 @@
         <v>-1190770.994120959</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5468,19 +5302,11 @@
         <v>-1247706.342520959</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="J149" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5509,19 +5335,11 @@
         <v>-1247706.342520959</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>72.06999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5553,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5589,19 +5401,11 @@
         <v>-1248390.784820959</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J152" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5630,19 +5434,11 @@
         <v>-1248390.784820959</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J153" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5671,19 +5467,11 @@
         <v>-1250374.879820959</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J154" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5712,19 +5500,11 @@
         <v>-1250366.879820959</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="J155" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5753,19 +5533,11 @@
         <v>-1267862.879820959</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>71.95</v>
-      </c>
-      <c r="J156" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5797,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5836,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5875,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5914,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5953,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5992,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6031,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6070,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6109,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6148,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6187,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6265,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6304,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6343,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6382,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6418,19 +6094,11 @@
         <v>-1259683.283920959</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J173" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6459,19 +6127,11 @@
         <v>-1259683.283920959</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J174" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6500,19 +6160,11 @@
         <v>-1259683.283920959</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J175" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6736,19 +6358,11 @@
         <v>-1490203.045520959</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6777,19 +6391,15 @@
         <v>-1489353.973720959</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>71.58</v>
       </c>
       <c r="J182" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>71.58</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6818,17 +6428,15 @@
         <v>-1521379.530720959</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>71.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6859,13 +6467,11 @@
         <v>-1528864.862820959</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>71.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6900,13 +6506,13 @@
         <v>-1528864.862820959</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>71.52</v>
       </c>
       <c r="J185" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6941,11 +6547,13 @@
         <v>-1563227.391020959</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>71.52</v>
+      </c>
       <c r="J186" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6980,11 +6588,13 @@
         <v>-1563227.391020959</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>71.51000000000001</v>
+      </c>
       <c r="J187" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7019,13 +6629,13 @@
         <v>-1563227.391020959</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>71.51000000000001</v>
       </c>
       <c r="J188" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7060,13 +6670,13 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>71.51000000000001</v>
       </c>
       <c r="J189" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7101,11 +6711,13 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>71.45999999999999</v>
+      </c>
       <c r="J190" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7140,13 +6752,13 @@
         <v>-1584966.354620959</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>71.45999999999999</v>
       </c>
       <c r="J191" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7181,11 +6793,13 @@
         <v>-1460959.692310699</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>71.59</v>
+      </c>
       <c r="J192" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7224,7 +6838,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7263,7 +6877,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7302,7 +6916,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7341,7 +6955,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7380,7 +6994,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7419,7 +7033,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7458,7 +7072,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7493,13 +7107,13 @@
         <v>-1423746.261631219</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>71.61</v>
       </c>
       <c r="J200" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7534,13 +7148,11 @@
         <v>-1433072.199631219</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>71.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7575,13 +7187,13 @@
         <v>-1433491.199631219</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>71.59</v>
       </c>
       <c r="J202" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7616,13 +7228,13 @@
         <v>-1433724.382531219</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>71.56</v>
       </c>
       <c r="J203" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7657,13 +7269,13 @@
         <v>-1429686.025231219</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>71.55</v>
       </c>
       <c r="J204" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7698,13 +7310,13 @@
         <v>-1429666.025231219</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>71.56</v>
       </c>
       <c r="J205" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7743,7 +7355,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7778,13 +7390,11 @@
         <v>-1433704.382531219</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>71.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7819,13 +7429,11 @@
         <v>-1433297.382531219</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>71.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7860,13 +7468,11 @@
         <v>-1433158.261731219</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>71.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7905,7 +7511,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7944,7 +7550,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7979,11 +7585,13 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>71.65000000000001</v>
+      </c>
       <c r="J212" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8018,11 +7626,13 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>71.86</v>
+      </c>
       <c r="J213" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8061,7 +7671,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8100,7 +7710,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8135,13 +7745,11 @@
         <v>-1452888.283120859</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>71.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8176,13 +7784,11 @@
         <v>-1449769.615420859</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>71.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8221,7 +7827,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8260,7 +7866,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8299,7 +7905,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8334,11 +7940,13 @@
         <v>-1443918.244520859</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="J221" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8377,7 +7985,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8412,11 +8020,13 @@
         <v>-1478425.079820859</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>71.81999999999999</v>
+      </c>
       <c r="J223" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8451,11 +8061,13 @@
         <v>-1489801.746820859</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>71.81</v>
+      </c>
       <c r="J224" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8490,13 +8102,11 @@
         <v>-1457121.561420859</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>71.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8535,7 +8145,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8570,13 +8180,11 @@
         <v>-1449173.080620859</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>71.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8615,7 +8223,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8650,13 +8258,13 @@
         <v>-1436754.439020859</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>71.75</v>
       </c>
       <c r="J229" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8691,13 +8299,13 @@
         <v>-1396475.130620859</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>71.78</v>
       </c>
       <c r="J230" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8732,13 +8340,13 @@
         <v>-1386352.464920859</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>71.79000000000001</v>
       </c>
       <c r="J231" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8773,13 +8381,13 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>71.84999999999999</v>
       </c>
       <c r="J232" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8814,13 +8422,11 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>71.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8855,13 +8461,13 @@
         <v>-1512594.676720859</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>71.90000000000001</v>
       </c>
       <c r="J234" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8896,13 +8502,11 @@
         <v>-1488052.584120859</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>71.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8937,13 +8541,11 @@
         <v>-1474371.606720859</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>71.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8978,13 +8580,11 @@
         <v>-1474897.606720859</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9019,13 +8619,11 @@
         <v>-1478875.806720859</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>71.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9060,13 +8658,13 @@
         <v>-1479381.062620859</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>71.79000000000001</v>
       </c>
       <c r="J239" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9101,13 +8699,11 @@
         <v>-1459242.774820859</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>71.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9142,13 +8738,11 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>71.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9183,13 +8777,11 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>71.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9224,13 +8816,13 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>71.93000000000001</v>
       </c>
       <c r="J243" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9265,13 +8857,13 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>71.93000000000001</v>
       </c>
       <c r="J244" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9306,13 +8898,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>71.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9347,13 +8937,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9388,13 +8976,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9429,13 +9015,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9470,13 +9054,11 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9511,13 +9093,11 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9552,13 +9132,11 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9593,13 +9171,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9634,13 +9210,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9675,13 +9249,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9716,13 +9288,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9757,13 +9327,11 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>72.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9798,13 +9366,11 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9839,13 +9405,11 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9880,13 +9444,11 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>71.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9921,13 +9483,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>71.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9962,13 +9522,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10003,13 +9561,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10048,7 +9604,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10087,7 +9643,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10122,13 +9678,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10163,13 +9717,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10204,13 +9756,11 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>72.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10245,13 +9795,11 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>71.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10286,13 +9834,11 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>71.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10327,13 +9873,11 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>71.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10368,13 +9912,13 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>71.77</v>
       </c>
       <c r="J271" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10409,13 +9953,11 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>71.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10450,11 +9992,13 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>71.81</v>
+      </c>
       <c r="J273" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10489,13 +10033,11 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>71.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10530,13 +10072,11 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>71.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10575,7 +10115,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10614,7 +10154,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10653,7 +10193,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10688,13 +10228,11 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>71.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10729,13 +10267,11 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>71.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10770,13 +10306,11 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>71.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10811,13 +10345,11 @@
         <v>-1282112.984350979</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>71.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10852,13 +10384,11 @@
         <v>-1286277.326950979</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>72.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10897,7 +10427,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10936,7 +10466,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10975,7 +10505,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11014,7 +10544,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11053,7 +10583,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11088,13 +10618,11 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>72.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11133,7 +10661,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11172,7 +10700,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11207,13 +10735,11 @@
         <v>-1197120.038750979</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>71.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11252,7 +10778,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11291,7 +10817,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11330,7 +10856,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11369,7 +10895,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11408,7 +10934,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11447,7 +10973,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11486,7 +11012,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11525,7 +11051,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11564,7 +11090,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11603,7 +11129,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11642,7 +11168,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11681,7 +11207,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11716,19 +11242,19 @@
         <v>-989560.3031212091</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>71.81999999999999</v>
+        <v>71.58</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1.010316067947647</v>
+        <v>1</v>
       </c>
       <c r="M305" t="inlineStr"/>
     </row>
@@ -11755,11 +11281,17 @@
         <v>-990825.8752212091</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +11320,17 @@
         <v>-990825.8752212091</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11821,11 +11359,17 @@
         <v>-990817.8752212091</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11854,11 +11398,17 @@
         <v>-992710.5817212091</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +11440,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +11479,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11953,11 +11515,17 @@
         <v>-1007398.244221209</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +11554,17 @@
         <v>-994118.5232212091</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +11593,17 @@
         <v>-970026.6268212091</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12052,11 +11632,17 @@
         <v>-900929.5164212091</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12088,8 +11674,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12118,11 +11710,17 @@
         <v>-885003.1933212091</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +11752,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12184,11 +11788,17 @@
         <v>-832639.2816212091</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +11827,17 @@
         <v>-834554.8263212091</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12250,11 +11866,17 @@
         <v>-779487.2309212091</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12283,11 +11905,17 @@
         <v>-788090.4447212091</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +11944,17 @@
         <v>-814298.8262212091</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12349,11 +11983,17 @@
         <v>-854256.9210212091</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12385,8 +12025,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12418,8 +12064,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12451,8 +12103,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12484,8 +12142,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12517,8 +12181,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12550,8 +12220,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12583,8 +12259,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12616,8 +12298,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12646,11 +12334,17 @@
         <v>-950214.4454212091</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12682,8 +12376,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12715,8 +12415,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12748,8 +12454,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12781,8 +12493,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12814,8 +12532,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +12571,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12880,8 +12610,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12913,8 +12649,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12946,8 +12688,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12979,8 +12727,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13012,8 +12766,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13042,11 +12802,17 @@
         <v>-956788.7427212091</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13078,8 +12844,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13111,8 +12883,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13144,8 +12922,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13174,11 +12958,17 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13210,8 +13000,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13243,8 +13039,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13276,8 +13078,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13306,11 +13114,17 @@
         <v>-913510.0759212091</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13342,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13375,8 +13195,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13408,8 +13234,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13441,8 +13273,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13474,8 +13312,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13507,8 +13351,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13540,8 +13390,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13570,11 +13426,17 @@
         <v>-950111.0082212092</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13606,8 +13468,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13639,8 +13507,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13672,8 +13546,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13702,11 +13582,17 @@
         <v>-926268.0769212092</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13735,11 +13621,17 @@
         <v>-930976.0775212093</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13771,8 +13663,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13804,8 +13702,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13837,8 +13741,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13870,8 +13780,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13903,8 +13819,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13936,8 +13858,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13969,8 +13897,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14002,8 +13936,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14035,8 +13975,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14068,8 +14014,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14101,8 +14053,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14134,8 +14092,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14167,8 +14131,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14200,8 +14170,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14233,8 +14209,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14266,8 +14248,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14299,8 +14287,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14332,8 +14326,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14365,8 +14365,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14398,8 +14404,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14431,8 +14443,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14464,8 +14482,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14497,8 +14521,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14530,8 +14560,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14563,8 +14599,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14596,8 +14638,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14629,8 +14677,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14662,8 +14716,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14695,8 +14755,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14728,8 +14794,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14761,8 +14833,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14794,8 +14872,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14827,8 +14911,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14860,8 +14950,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14893,8 +14989,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14926,8 +15028,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14959,8 +15067,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14992,8 +15106,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15025,8 +15145,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15058,8 +15184,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15091,8 +15223,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15124,8 +15262,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15157,8 +15301,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15190,8 +15340,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15223,8 +15379,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15256,8 +15418,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15289,8 +15457,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15322,8 +15496,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15355,8 +15535,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15388,8 +15574,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15421,8 +15613,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15454,8 +15652,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15487,8 +15691,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15520,8 +15730,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15553,8 +15769,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15586,8 +15808,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15619,8 +15847,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15652,8 +15886,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15685,8 +15925,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15718,8 +15964,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15751,8 +16003,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15784,8 +16042,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15817,8 +16081,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15850,8 +16120,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15883,8 +16159,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15916,8 +16198,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15949,8 +16237,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>71.58</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15979,15 +16273,17 @@
         <v>-1205610.391367229</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>71.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="K434" t="inlineStr"/>
+        <v>71.58</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16016,15 +16312,17 @@
         <v>-1240557.661467229</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>71.64</v>
+      </c>
       <c r="J435" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L435" t="n">
@@ -16055,17 +16353,15 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>71.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L436" t="n">
@@ -16096,13 +16392,13 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>71.59</v>
       </c>
       <c r="J437" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16137,11 +16433,13 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>71.59</v>
+      </c>
       <c r="J438" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16180,7 +16478,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16219,7 +16517,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16258,7 +16556,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16297,7 +16595,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16336,7 +16634,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16375,7 +16673,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16414,7 +16712,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16453,7 +16751,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16492,7 +16790,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16531,7 +16829,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16570,7 +16868,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16605,11 +16903,13 @@
         <v>-1630578.71376723</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>71.3</v>
+      </c>
       <c r="J450" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16644,11 +16944,13 @@
         <v>-1594513.79436723</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>71.20999999999999</v>
+      </c>
       <c r="J451" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16683,13 +16985,13 @@
         <v>-1598060.83226723</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>71.36</v>
       </c>
       <c r="J452" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16724,13 +17026,13 @@
         <v>-1458547.78008739</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>71.31999999999999</v>
       </c>
       <c r="J453" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16765,13 +17067,13 @@
         <v>-1459943.55803575</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>71.75</v>
       </c>
       <c r="J454" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16810,7 +17112,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16849,7 +17151,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16888,7 +17190,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16927,7 +17229,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16966,7 +17268,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17005,7 +17307,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17044,7 +17346,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17083,7 +17385,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17122,7 +17424,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17157,11 +17459,13 @@
         <v>-1460689.36593575</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>71.52</v>
+      </c>
       <c r="J464" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17200,7 +17504,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17239,7 +17543,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17278,7 +17582,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17317,7 +17621,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17356,7 +17660,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>71.61</v>
+        <v>71.58</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17369,6 +17673,6 @@
       <c r="M469" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XLM.xlsx
+++ b/BackTest/2020-01-23 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-327476.4558778999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-327486.4558778999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-327486.4558778999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-326938.4172778999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-326928.4172778999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-324224.2261778999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-324234.2261778999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-324234.2261778999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-324095.3372778999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-324105.3372778999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-324105.3372778999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-324105.3372778999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-306050.9718778999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-313541.8187778999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-313544.2873778999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-313544.2873778999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-313504.2873778999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-313504.2873778999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-313484.2873778999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-313484.2873778999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-876589.5310199099</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-915053.8479199099</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-915232.7589199098</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-885324.8434199098</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-968856.9514199098</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-972110.5046199099</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-950562.00301991</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-953424.0893199099</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-971566.2485199099</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-946439.2217390399</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-962699.4247390399</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-989637.8221390399</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-988483.8204658699</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-990287.3136658699</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1247706.342520959</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6391,14 +6391,10 @@
         <v>-1489353.973720959</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="J182" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6431,615 +6427,509 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K183" t="inlineStr">
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="C184" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="D184" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="E184" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7485.3321</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1528864.862820959</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="C185" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="D185" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="E185" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1528864.862820959</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="C186" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="E186" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>34362.5282</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1563227.391020959</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="C187" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="E187" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>34806.8</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1563227.391020959</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="D188" t="n">
+        <v>71.53</v>
+      </c>
+      <c r="E188" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21899.3268</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1563227.391020959</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21777.8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1585005.191020959</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>984.7712</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1585005.191020959</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="C191" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="D191" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="E191" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="F191" t="n">
+        <v>38.8364</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1584966.354620959</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="C192" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E192" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>124006.66231026</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1460959.692310699</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C193" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2448.9676</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1460959.692310699</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="C194" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="D194" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E194" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11048.84748974</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1449910.844820959</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="C195" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="D195" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E195" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23330.9628</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1449910.844820959</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="C196" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="D196" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E196" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="F196" t="n">
+        <v>53.42581026</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1449910.844820959</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="C197" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="D197" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E197" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="F197" t="n">
+        <v>226.02078974</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1449910.844820959</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="C198" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="D198" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E198" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1044</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1450954.844820959</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="C184" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="D184" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="E184" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="F184" t="n">
-        <v>7485.3321</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1528864.862820959</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="C185" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="D185" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="E185" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1528864.862820959</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="J185" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="C186" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="D186" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="E186" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="F186" t="n">
-        <v>34362.5282</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1563227.391020959</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="J186" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="C187" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="D187" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="E187" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="F187" t="n">
-        <v>34806.8</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1563227.391020959</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="J187" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="D188" t="n">
-        <v>71.53</v>
-      </c>
-      <c r="E188" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="F188" t="n">
-        <v>21899.3268</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1563227.391020959</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="J188" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="C189" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="D189" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="E189" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="F189" t="n">
-        <v>21777.8</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1585005.191020959</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="J189" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="C190" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="D190" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="F190" t="n">
-        <v>984.7712</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1585005.191020959</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="J190" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="C191" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="D191" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="E191" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="F191" t="n">
-        <v>38.8364</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1584966.354620959</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="C192" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="D192" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="E192" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="F192" t="n">
-        <v>124006.66231026</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1460959.692310699</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="J192" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="C193" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="D193" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E193" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2448.9676</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1460959.692310699</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="C194" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="D194" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="E194" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="F194" t="n">
-        <v>11048.84748974</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1449910.844820959</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="C195" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="D195" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="E195" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="F195" t="n">
-        <v>23330.9628</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1449910.844820959</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="C196" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="D196" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="E196" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="F196" t="n">
-        <v>53.42581026</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1449910.844820959</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="C197" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="D197" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="E197" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="F197" t="n">
-        <v>226.02078974</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1449910.844820959</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="C198" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="D198" t="n">
-        <v>71.63</v>
-      </c>
-      <c r="E198" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1044</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1450954.844820959</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7068,12 +6958,12 @@
         <v>-1450954.844820959</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>71.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7112,9 +7002,7 @@
       <c r="I200" t="n">
         <v>71.61</v>
       </c>
-      <c r="J200" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7148,12 +7036,12 @@
         <v>-1433072.199631219</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>71.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>71.67</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,9 +7080,7 @@
       <c r="I202" t="n">
         <v>71.59</v>
       </c>
-      <c r="J202" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7233,9 +7119,7 @@
       <c r="I203" t="n">
         <v>71.56</v>
       </c>
-      <c r="J203" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7274,9 +7158,7 @@
       <c r="I204" t="n">
         <v>71.55</v>
       </c>
-      <c r="J204" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,9 +7197,7 @@
       <c r="I205" t="n">
         <v>71.56</v>
       </c>
-      <c r="J205" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,12 +7231,12 @@
         <v>-1429666.025231219</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>71.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7390,12 +7270,12 @@
         <v>-1433704.382531219</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>71.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,12 +7309,12 @@
         <v>-1433297.382531219</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>71.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,9 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,9 +7388,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,9 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,14 +7459,10 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="J212" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,14 +7496,10 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="J213" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,9 +7536,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,9 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,9 +7610,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,9 +7647,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,9 +7684,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,9 +7721,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,9 +7758,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7940,14 +7792,10 @@
         <v>-1443918.244520859</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="J221" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7984,9 +7832,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,14 +7866,10 @@
         <v>-1478425.079820859</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="J223" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,14 +7903,10 @@
         <v>-1489801.746820859</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="J224" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,9 +7943,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,9 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,9 +8017,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8222,9 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>71.58</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,14 +8088,10 @@
         <v>-1436754.439020859</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="J229" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,14 +8125,10 @@
         <v>-1396475.130620859</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="J230" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,14 +8162,10 @@
         <v>-1386352.464920859</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="J231" t="n">
-        <v>71.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,22 +8199,16 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="J232" t="n">
-        <v>71.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
@@ -8422,17 +8234,11 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8461,19 +8267,11 @@
         <v>-1512594.676720859</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="J234" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8502,17 +8300,11 @@
         <v>-1488052.584120859</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8541,17 +8333,11 @@
         <v>-1474371.606720859</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8580,17 +8366,11 @@
         <v>-1474897.606720859</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8619,17 +8399,11 @@
         <v>-1478875.806720859</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8658,19 +8432,11 @@
         <v>-1479381.062620859</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="J239" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8699,17 +8465,11 @@
         <v>-1459242.774820859</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8738,17 +8498,11 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8777,17 +8531,11 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8816,19 +8564,11 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="J243" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8857,19 +8597,11 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="J244" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8898,17 +8630,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8937,17 +8663,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8976,17 +8696,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9015,17 +8729,11 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9054,17 +8762,11 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9093,17 +8795,11 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9132,17 +8828,11 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9171,17 +8861,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9210,17 +8894,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9249,17 +8927,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9288,17 +8960,11 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9327,17 +8993,11 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9366,17 +9026,11 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9405,17 +9059,11 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9444,17 +9092,11 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9483,17 +9125,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9525,14 +9161,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9561,17 +9191,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9600,17 +9224,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9639,17 +9257,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9678,17 +9290,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9717,17 +9323,11 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9756,17 +9356,11 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9795,17 +9389,11 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9834,17 +9422,11 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9873,17 +9455,11 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9912,19 +9488,11 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="J271" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9956,14 +9524,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9992,19 +9554,11 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="J273" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10033,17 +9587,11 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10072,17 +9620,11 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10111,17 +9653,11 @@
         <v>-1330273.446396529</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10153,14 +9689,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10189,17 +9719,11 @@
         <v>-1330148.289950979</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10228,17 +9752,11 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10267,17 +9785,11 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10306,17 +9818,11 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10345,17 +9851,11 @@
         <v>-1282112.984350979</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10384,17 +9884,11 @@
         <v>-1286277.326950979</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10423,17 +9917,11 @@
         <v>-1286317.326950979</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10465,14 +9953,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10504,14 +9986,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10540,17 +10016,11 @@
         <v>-1255906.544850979</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10579,17 +10049,11 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10618,17 +10082,11 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10657,17 +10115,11 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10696,17 +10148,11 @@
         <v>-1237537.828150979</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10738,14 +10184,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10777,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10813,17 +10247,11 @@
         <v>-1086864.083150979</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10852,17 +10280,11 @@
         <v>-1086864.083150979</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10891,17 +10313,11 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10930,17 +10346,11 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10969,17 +10379,11 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11011,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11050,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11089,14 +10481,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11125,17 +10511,11 @@
         <v>-1059516.358421209</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11164,17 +10544,11 @@
         <v>-1055517.061921209</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11206,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11245,14 +10613,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11284,14 +10646,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11323,14 +10679,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11362,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11401,14 +10745,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11440,14 +10778,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11479,14 +10811,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11518,14 +10844,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11557,14 +10877,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11596,14 +10910,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11635,14 +10943,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11674,14 +10976,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11713,14 +11009,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11752,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11791,14 +11075,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11830,14 +11108,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11869,14 +11141,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11908,14 +11174,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11947,14 +11207,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11986,14 +11240,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12025,14 +11273,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12064,14 +11306,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12103,14 +11339,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12142,14 +11372,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12181,14 +11405,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12220,14 +11438,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12259,14 +11471,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12298,14 +11504,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12337,14 +11537,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12376,14 +11570,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12415,14 +11603,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12454,14 +11636,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12493,14 +11669,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12532,14 +11702,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12571,14 +11735,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12610,14 +11768,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12649,14 +11801,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12688,14 +11834,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12727,14 +11867,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12766,14 +11900,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12805,14 +11933,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12841,17 +11963,11 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12880,17 +11996,11 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12922,14 +12032,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12961,14 +12065,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13000,14 +12098,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13039,14 +12131,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13078,14 +12164,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13117,14 +12197,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13156,14 +12230,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13195,14 +12263,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13234,14 +12296,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13273,14 +12329,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13312,14 +12362,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13351,14 +12395,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13390,14 +12428,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13429,14 +12461,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13468,14 +12494,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13507,14 +12527,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13546,14 +12560,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13585,14 +12593,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13624,14 +12626,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13663,14 +12659,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13702,14 +12692,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13741,14 +12725,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13780,14 +12758,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13819,14 +12791,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13858,14 +12824,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13897,14 +12857,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13936,14 +12890,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13975,14 +12923,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14014,14 +12956,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14053,14 +12989,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14092,14 +13022,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14131,14 +13055,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14170,14 +13088,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14209,14 +13121,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14248,14 +13154,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14287,14 +13187,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14326,14 +13220,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14365,14 +13253,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14404,14 +13286,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14443,14 +13319,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14482,14 +13352,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14521,14 +13385,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14560,14 +13418,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14599,14 +13451,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14638,14 +13484,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14677,14 +13517,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14716,14 +13550,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14755,14 +13583,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14794,14 +13616,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14833,14 +13649,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14872,14 +13682,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14911,14 +13715,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14950,14 +13748,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14989,14 +13781,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15028,14 +13814,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15067,14 +13847,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15106,14 +13880,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15145,14 +13913,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15184,14 +13946,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15223,14 +13979,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15262,14 +14012,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15301,14 +14045,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15340,14 +14078,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15379,14 +14111,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15418,14 +14144,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15457,14 +14177,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15496,14 +14210,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15535,14 +14243,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15574,14 +14276,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15613,14 +14309,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15652,14 +14342,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15691,14 +14375,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15730,14 +14408,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15769,14 +14441,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15808,14 +14474,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15847,14 +14507,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15886,14 +14540,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15925,14 +14573,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15964,14 +14606,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16003,14 +14639,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16039,17 +14669,11 @@
         <v>-1209342.575167229</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16078,17 +14702,11 @@
         <v>-1210478.575167229</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16117,17 +14735,11 @@
         <v>-1209644.082767229</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16159,14 +14771,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16195,17 +14801,11 @@
         <v>-1210058.082767229</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16234,17 +14834,11 @@
         <v>-1213058.082767229</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16276,14 +14870,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16312,19 +14900,11 @@
         <v>-1240557.661467229</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>71.64</v>
-      </c>
-      <c r="J435" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16356,14 +14936,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16392,19 +14966,11 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="J437" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16433,19 +14999,11 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="J438" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16477,14 +15035,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16516,14 +15068,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16555,14 +15101,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16594,14 +15134,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16633,14 +15167,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16672,14 +15200,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16711,14 +15233,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16750,14 +15266,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16786,17 +15296,15 @@
         <v>-1622473.52076723</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>71.41</v>
+      </c>
       <c r="J447" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>71.41</v>
+      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16825,15 +15333,17 @@
         <v>-1622465.52076723</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>71.41</v>
+      </c>
       <c r="J448" t="n">
-        <v>71.58</v>
+        <v>71.41</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -16864,15 +15374,17 @@
         <v>-1623169.29066723</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>71.43000000000001</v>
+      </c>
       <c r="J449" t="n">
-        <v>71.58</v>
+        <v>71.41</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -16903,19 +15415,11 @@
         <v>-1630578.71376723</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="J450" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16950,13 +15454,9 @@
         <v>71.20999999999999</v>
       </c>
       <c r="J451" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>71.20999999999999</v>
+      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16991,11 +15491,11 @@
         <v>71.36</v>
       </c>
       <c r="J452" t="n">
-        <v>71.58</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -17032,11 +15532,11 @@
         <v>71.31999999999999</v>
       </c>
       <c r="J453" t="n">
-        <v>71.58</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L453" t="n">
@@ -17067,19 +15567,11 @@
         <v>-1459943.55803575</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="J454" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17111,14 +15603,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17150,14 +15636,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17189,14 +15669,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17228,14 +15702,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17267,14 +15735,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17306,14 +15768,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17345,14 +15801,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17384,14 +15834,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17423,14 +15867,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17459,19 +15897,11 @@
         <v>-1460689.36593575</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>71.52</v>
-      </c>
-      <c r="J464" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17503,14 +15933,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17542,14 +15966,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17581,14 +15999,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17620,14 +16032,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17659,20 +16065,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>71.58</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
       <c r="M469" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XLM.xlsx
+++ b/BackTest/2020-01-23 BackTest XLM.xlsx
@@ -2398,7 +2398,7 @@
         <v>-876589.5310199099</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-915053.8479199099</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-915232.7589199098</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-885324.8434199098</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-968856.9514199098</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-972110.5046199099</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-950562.00301991</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-953424.0893199099</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-971566.2485199099</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-946439.2217390399</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-962699.4247390399</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-989637.8221390399</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-988483.8204658699</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-990287.3136658699</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1247706.342520959</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6622,10 +6622,14 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="J189" t="n">
+        <v>71.51000000000001</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6655,11 +6659,19 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="J190" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6700,19 @@
         <v>-1584966.354620959</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,10 +6741,14 @@
         <v>-1460959.692310699</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="J192" t="n">
+        <v>71.59</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
@@ -6757,8 +6781,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6919,999 +6955,1017 @@
         <v>-1450954.844820959</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>71.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="C199" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="D199" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="E199" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="F199" t="n">
+        <v>209.70221026</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1450954.844820959</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="C200" t="n">
+        <v>71.67</v>
+      </c>
+      <c r="D200" t="n">
+        <v>71.67</v>
+      </c>
+      <c r="E200" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="F200" t="n">
+        <v>27208.58318974</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1423746.261631219</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="C201" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="D201" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="E201" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="F201" t="n">
+        <v>9325.938</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1433072.199631219</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="C202" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="D202" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="E202" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="F202" t="n">
+        <v>419</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1433491.199631219</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="C203" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="D203" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="E203" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="F203" t="n">
+        <v>233.1829</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1433724.382531219</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="J203" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="C204" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="D204" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="E204" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4038.3573</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1429686.025231219</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="J204" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="C205" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="D205" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="E205" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="F205" t="n">
+        <v>20</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1429666.025231219</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="J205" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="C206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="D206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="E206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="F206" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1429666.025231219</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J206" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="C207" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="D207" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="E207" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4038.3573</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1433704.382531219</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J207" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>407</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1433297.382531219</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="J208" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="C209" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="D209" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="E209" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="F209" t="n">
+        <v>139.1208</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1433158.261731219</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="C210" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="D210" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="E210" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="F210" t="n">
+        <v>41.43592597</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1433199.697657189</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="J210" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="C211" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="D211" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="E211" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1447199.697657189</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="J211" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="C212" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="D212" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="E212" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="F212" t="n">
+        <v>597.6492</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1446602.048457189</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="J212" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="C213" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="D213" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="E213" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4926.1655</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1446602.048457189</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="J213" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="C214" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="D214" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="E214" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2782.41513633</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1443819.633320859</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="J214" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="C215" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="D215" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="E215" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3249.964</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1443819.633320859</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="J215" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="D216" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="E216" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>9068.649799999999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1452888.283120859</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="J216" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="C217" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="D217" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="E217" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3118.6677</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1449769.615420859</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J217" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C218" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D218" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E218" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F218" t="n">
+        <v>971.1603</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1448798.455120859</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="J218" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C219" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E219" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10761.5163</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1448798.455120859</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J219" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="C220" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="D220" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="E220" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="F220" t="n">
+        <v>260.6751</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1449059.130220859</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J220" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="C221" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="D221" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="E221" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5140.8857</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1443918.244520859</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J221" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="C222" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="D222" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="E222" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23.3837</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1443894.860820859</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J222" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>71.83</v>
+      </c>
+      <c r="C223" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="D223" t="n">
+        <v>71.83</v>
+      </c>
+      <c r="E223" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="F223" t="n">
+        <v>34530.219</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1478425.079820859</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="C224" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D224" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="E224" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F224" t="n">
+        <v>11376.667</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1489801.746820859</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J224" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="C199" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="D199" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="E199" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="F199" t="n">
-        <v>209.70221026</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1450954.844820959</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="C200" t="n">
-        <v>71.67</v>
-      </c>
-      <c r="D200" t="n">
-        <v>71.67</v>
-      </c>
-      <c r="E200" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="F200" t="n">
-        <v>27208.58318974</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1423746.261631219</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="C201" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="D201" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="E201" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="F201" t="n">
-        <v>9325.938</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1433072.199631219</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>71.67</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="C202" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="D202" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="E202" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="F202" t="n">
-        <v>419</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1433491.199631219</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="C203" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="D203" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="E203" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="F203" t="n">
-        <v>233.1829</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1433724.382531219</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="C204" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="D204" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="E204" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="F204" t="n">
-        <v>4038.3573</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1429686.025231219</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>71.55</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="C205" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="D205" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="E205" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="F205" t="n">
-        <v>20</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1429666.025231219</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="C206" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="D206" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="E206" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="F206" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1429666.025231219</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>71.62</v>
-      </c>
-      <c r="C207" t="n">
-        <v>71.62</v>
-      </c>
-      <c r="D207" t="n">
-        <v>71.62</v>
-      </c>
-      <c r="E207" t="n">
-        <v>71.62</v>
-      </c>
-      <c r="F207" t="n">
-        <v>4038.3573</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1433704.382531219</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="C208" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="D208" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="E208" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="F208" t="n">
-        <v>407</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1433297.382531219</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>71.62</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="C209" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="D209" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="E209" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="F209" t="n">
-        <v>139.1208</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1433158.261731219</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="C210" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="D210" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="E210" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="F210" t="n">
-        <v>41.43592597</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1433199.697657189</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="C211" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="D211" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="E211" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="F211" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1447199.697657189</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="C212" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="D212" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="E212" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="F212" t="n">
-        <v>597.6492</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1446602.048457189</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="C213" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="D213" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="E213" t="n">
-        <v>71.86</v>
-      </c>
-      <c r="F213" t="n">
-        <v>4926.1655</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1446602.048457189</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="C214" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="D214" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="E214" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2782.41513633</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1443819.633320859</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="C215" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="D215" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="E215" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3249.964</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1443819.633320859</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="C216" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="D216" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="E216" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="F216" t="n">
-        <v>9068.649799999999</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1452888.283120859</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="C217" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="D217" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="E217" t="n">
-        <v>71.88</v>
-      </c>
-      <c r="F217" t="n">
-        <v>3118.6677</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1449769.615420859</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C218" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D218" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E218" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F218" t="n">
-        <v>971.1603</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1448798.455120859</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C219" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D219" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E219" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10761.5163</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1448798.455120859</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="C220" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="D220" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="E220" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="F220" t="n">
-        <v>260.6751</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1449059.130220859</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="C221" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="D221" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="E221" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="F221" t="n">
-        <v>5140.8857</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1443918.244520859</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="C222" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="D222" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="E222" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="F222" t="n">
-        <v>23.3837</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1443894.860820859</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="C223" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="D223" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="E223" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="F223" t="n">
-        <v>34530.219</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1478425.079820859</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="C224" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="D224" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="E224" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F224" t="n">
-        <v>11376.667</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1489801.746820859</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7940,10 +7994,14 @@
         <v>-1457121.561420859</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="J225" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7977,10 +8035,14 @@
         <v>-1442748.091120859</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J226" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8014,10 +8076,14 @@
         <v>-1449173.080620859</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>71.83</v>
+      </c>
+      <c r="J227" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,10 +8117,14 @@
         <v>-1452837.832420859</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J228" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,10 +8158,14 @@
         <v>-1436754.439020859</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="J229" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,10 +8199,14 @@
         <v>-1396475.130620859</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="J230" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8162,10 +8240,14 @@
         <v>-1386352.464920859</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J231" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8199,2919 +8281,3545 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="J232" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="C233" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D233" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E233" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1651.9999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1385287.464920859</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J233" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="C234" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="D234" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E234" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="F234" t="n">
+        <v>127307.2118</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1512594.676720859</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J234" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C235" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="D235" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="E235" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24542.0926</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1488052.584120859</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J235" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>72</v>
+      </c>
+      <c r="C236" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D236" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E236" t="n">
+        <v>72</v>
+      </c>
+      <c r="F236" t="n">
+        <v>13680.9774</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1474371.606720859</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="J236" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="C237" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="D237" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="E237" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="F237" t="n">
+        <v>526</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1474897.606720859</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J237" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="D238" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E238" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3978.2</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1478875.806720859</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="J238" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="C239" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="D239" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="E239" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="F239" t="n">
+        <v>505.2559</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1479381.062620859</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J239" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="C240" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="D240" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="E240" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="F240" t="n">
+        <v>20138.2878</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1459242.774820859</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="J240" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="C241" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="D241" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="E241" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="F241" t="n">
+        <v>7615.5235</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1451627.251320859</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J241" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="C242" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="D242" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="E242" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="F242" t="n">
+        <v>19403.8106</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1451627.251320859</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="J242" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="C243" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="D243" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="E243" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="F243" t="n">
+        <v>627.0001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1451627.251320859</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="J243" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="C244" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="D244" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="E244" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="F244" t="n">
+        <v>19698.5729</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1451627.251320859</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="J244" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C245" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D245" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E245" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2435.4304</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1449191.820920859</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="J245" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C246" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D246" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E246" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4615.3846</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1449191.820920859</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J246" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C247" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D247" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E247" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F247" t="n">
+        <v>694.6677</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1449191.820920859</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J247" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C248" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D248" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E248" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F248" t="n">
+        <v>7</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1449191.820920859</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J248" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C249" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D249" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E249" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F249" t="n">
+        <v>37226.4866</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1411965.334320859</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J249" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C250" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D250" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E250" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F250" t="n">
+        <v>601.1803</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1411965.334320859</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J250" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C251" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D251" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E251" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7749.3057</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1411965.334320859</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J251" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C252" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D252" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E252" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="F252" t="n">
+        <v>19376.7442</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1431342.078520859</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J252" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C253" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D253" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E253" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F253" t="n">
+        <v>974.7394</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1431342.078520859</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J253" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C254" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D254" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E254" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F254" t="n">
+        <v>7</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1431342.078520859</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J254" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C255" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D255" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E255" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F255" t="n">
+        <v>10587.95</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1431342.078520859</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J255" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C256" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D256" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E256" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F256" t="n">
+        <v>41989.3587</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1389352.719820859</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J256" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C257" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D257" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E257" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F257" t="n">
+        <v>36275.8242</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1389352.719820859</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J257" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C258" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="D258" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E258" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="F258" t="n">
+        <v>25865.9578</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1415218.677620859</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J258" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="C259" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="D259" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="E259" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="F259" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1415218.677620859</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="J259" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="C260" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D260" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E260" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="F260" t="n">
+        <v>118810.8108</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="J260" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C261" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D261" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E261" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F261" t="n">
+        <v>19767.2567</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J261" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C262" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D262" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E262" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F262" t="n">
+        <v>46020.3523</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J262" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="C263" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D263" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1983.9295</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J263" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C264" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D264" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E264" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F264" t="n">
+        <v>12210.4566</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J264" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C265" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D265" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E265" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F265" t="n">
+        <v>41.5258</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J265" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C266" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D266" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E266" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F266" t="n">
+        <v>531.5928</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1296407.866820859</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J266" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="C267" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="D267" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>16195.5213</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1312603.388120859</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="J267" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="C268" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="D268" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="E268" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1607.7362</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1312603.388120859</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="J268" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="C269" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="D269" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="E269" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="F269" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1317603.388120859</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="J269" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="C270" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="D270" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="E270" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3052.4335</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1317603.388120859</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J270" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="C271" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="D271" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="E271" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="F271" t="n">
+        <v>521</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1317082.388120859</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J271" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="C272" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="D272" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="E272" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="F272" t="n">
+        <v>122.7686</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1317082.388120859</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J272" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="C273" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D273" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E273" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1397.23092433</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1315685.157196529</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J273" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C274" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D274" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E274" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1315685.157196529</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="J274" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C275" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D275" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E275" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F275" t="n">
+        <v>18</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1315685.157196529</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="J275" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C276" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D276" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E276" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F276" t="n">
+        <v>14588.2892</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1330273.446396529</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="J276" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C277" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D277" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E277" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F277" t="n">
+        <v>125.15644555</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1330148.289950979</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C278" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D278" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E278" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F278" t="n">
+        <v>16.804</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1330148.289950979</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C279" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D279" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E279" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3008.1816</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1333156.471550979</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C280" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D280" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E280" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F280" t="n">
+        <v>9284.3853</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1333156.471550979</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C281" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D281" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E281" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3362.5087</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-1333156.471550979</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J281" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C282" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="D282" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="E282" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F282" t="n">
+        <v>51043.4872</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-1282112.984350979</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J282" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="C283" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="D283" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="E283" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="F283" t="n">
+        <v>4164.3426</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-1286277.326950979</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D284" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="E284" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F284" t="n">
+        <v>40</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-1286317.326950979</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="C285" t="n">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="D285" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="E285" t="n">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="F285" t="n">
+        <v>29977.7821</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-1256339.544850979</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="C286" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="D286" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="E286" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="F286" t="n">
+        <v>433</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1255906.544850979</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="C287" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="D287" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="E287" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="F287" t="n">
+        <v>623.3203</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1255906.544850979</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="C288" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="D288" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E288" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="F288" t="n">
+        <v>18898.5785</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1237007.966350979</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="C289" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="D289" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E289" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="F289" t="n">
+        <v>742.6319</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-1237007.966350979</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="C290" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="D290" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E290" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1080.63</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-1237007.966350979</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="C291" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="D291" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="E291" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="F291" t="n">
+        <v>529.8618</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1237537.828150979</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C292" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D292" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E292" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F292" t="n">
+        <v>40417.7894</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1197120.038750979</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C293" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D293" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E293" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F293" t="n">
+        <v>42883.7613</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-1197120.038750979</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C294" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D294" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E294" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F294" t="n">
+        <v>110255.9556</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1086864.083150979</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C295" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D295" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E295" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F295" t="n">
+        <v>37357.962</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-1086864.083150979</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="C296" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="D296" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="E296" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="F296" t="n">
+        <v>846.20182977</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1086017.881321209</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="C297" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="D297" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="E297" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="F297" t="n">
+        <v>12300</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-1086017.881321209</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="C298" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="D298" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="E298" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="F298" t="n">
+        <v>2244.7638</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1086017.881321209</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="C299" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="D299" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="E299" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="F299" t="n">
+        <v>345.8716</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1086017.881321209</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="C300" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="D300" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="E300" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="F300" t="n">
+        <v>12162.0859</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-1073855.795421209</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C301" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="D301" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="E301" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F301" t="n">
+        <v>14134.2557</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-1073855.795421209</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="C302" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="D302" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="E302" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="F302" t="n">
+        <v>14339.437</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1059516.358421209</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C303" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D303" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E303" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3999.2965</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-1055517.061921209</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="C304" t="n">
+        <v>72.63</v>
+      </c>
+      <c r="D304" t="n">
+        <v>72.63</v>
+      </c>
+      <c r="E304" t="n">
+        <v>72.53</v>
+      </c>
+      <c r="F304" t="n">
+        <v>28979.1586</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-1026537.903321209</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>72.63</v>
+      </c>
+      <c r="C305" t="n">
+        <v>72.92</v>
+      </c>
+      <c r="D305" t="n">
+        <v>72.92</v>
+      </c>
+      <c r="E305" t="n">
+        <v>72.63</v>
+      </c>
+      <c r="F305" t="n">
+        <v>36977.6002</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-989560.3031212091</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="C306" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="D306" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="E306" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1265.5721</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-990825.8752212091</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C307" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="D307" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E307" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="F307" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-990825.8752212091</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="C308" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="D308" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="E308" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="F308" t="n">
+        <v>8</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-990817.8752212091</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="C309" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="D309" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="E309" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1892.7065</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-992710.5817212091</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="C310" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="D310" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="E310" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3700</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-992710.5817212091</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="C311" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="D311" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="E311" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="F311" t="n">
+        <v>67.5831</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-992642.9986212091</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="C312" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="D312" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="E312" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="F312" t="n">
+        <v>14755.2456</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-1007398.244221209</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="C313" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="D313" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="E313" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="F313" t="n">
+        <v>13279.721</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-994118.5232212091</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C314" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D314" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E314" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="F314" t="n">
+        <v>24091.8964</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-970026.6268212091</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="C315" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="D315" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="E315" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="F315" t="n">
+        <v>69097.11040000001</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-900929.5164212091</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="C316" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="D316" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="E316" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="F316" t="n">
+        <v>38056.566</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-938986.0824212091</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C317" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D317" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E317" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F317" t="n">
+        <v>53982.8891</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-885003.1933212091</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C318" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D318" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E318" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F318" t="n">
+        <v>735.0798</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-885003.1933212091</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C319" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="D319" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="E319" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F319" t="n">
+        <v>52363.9117</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-832639.2816212091</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C320" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D320" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="E320" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1915.5447</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-834554.8263212091</v>
+      </c>
+      <c r="H320" t="n">
         <v>2</v>
       </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="C233" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D233" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E233" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1651.9999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1385287.464920859</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="C234" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="D234" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="E234" t="n">
-        <v>71.65000000000001</v>
-      </c>
-      <c r="F234" t="n">
-        <v>127307.2118</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1512594.676720859</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C235" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="D235" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="E235" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F235" t="n">
-        <v>24542.0926</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1488052.584120859</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>72</v>
-      </c>
-      <c r="C236" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D236" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E236" t="n">
-        <v>72</v>
-      </c>
-      <c r="F236" t="n">
-        <v>13680.9774</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1474371.606720859</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="C237" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="D237" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="E237" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="F237" t="n">
-        <v>526</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1474897.606720859</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="C238" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="D238" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="E238" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="F238" t="n">
-        <v>3978.2</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1478875.806720859</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="C239" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="D239" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="E239" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="F239" t="n">
-        <v>505.2559</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1479381.062620859</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="C240" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="D240" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="E240" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="F240" t="n">
-        <v>20138.2878</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1459242.774820859</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="C241" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="D241" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="E241" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="F241" t="n">
-        <v>7615.5235</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1451627.251320859</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="C242" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="D242" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="E242" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="F242" t="n">
-        <v>19403.8106</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1451627.251320859</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="C243" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="D243" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="E243" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="F243" t="n">
-        <v>627.0001</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1451627.251320859</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="C244" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="D244" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="E244" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="F244" t="n">
-        <v>19698.5729</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1451627.251320859</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C245" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D245" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E245" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2435.4304</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1449191.820920859</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C246" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D246" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E246" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F246" t="n">
-        <v>4615.3846</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1449191.820920859</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C247" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D247" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E247" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F247" t="n">
-        <v>694.6677</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1449191.820920859</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C248" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D248" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E248" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F248" t="n">
-        <v>7</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1449191.820920859</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C249" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D249" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E249" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F249" t="n">
-        <v>37226.4866</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1411965.334320859</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C250" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D250" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E250" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F250" t="n">
-        <v>601.1803</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1411965.334320859</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C251" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D251" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E251" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F251" t="n">
-        <v>7749.3057</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1411965.334320859</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C252" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D252" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E252" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="F252" t="n">
-        <v>19376.7442</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1431342.078520859</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C253" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D253" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E253" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F253" t="n">
-        <v>974.7394</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1431342.078520859</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C254" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D254" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E254" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F254" t="n">
-        <v>7</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1431342.078520859</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C255" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D255" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E255" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F255" t="n">
-        <v>10587.95</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1431342.078520859</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C256" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D256" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E256" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F256" t="n">
-        <v>41989.3587</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1389352.719820859</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C257" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D257" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E257" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F257" t="n">
-        <v>36275.8242</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1389352.719820859</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C258" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="D258" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E258" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="F258" t="n">
-        <v>25865.9578</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1415218.677620859</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="C259" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="D259" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="E259" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="F259" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1415218.677620859</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="C260" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D260" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E260" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="F260" t="n">
-        <v>118810.8108</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C261" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D261" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E261" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F261" t="n">
-        <v>19767.2567</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C262" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D262" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E262" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F262" t="n">
-        <v>46020.3523</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="C263" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D263" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E263" t="n">
-        <v>71.94</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1983.9295</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C264" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D264" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E264" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F264" t="n">
-        <v>12210.4566</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C265" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D265" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E265" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F265" t="n">
-        <v>41.5258</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C266" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D266" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E266" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F266" t="n">
-        <v>531.5928</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1296407.866820859</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="C267" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="D267" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="E267" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="F267" t="n">
-        <v>16195.5213</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1312603.388120859</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="C268" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="D268" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="E268" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1607.7362</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1312603.388120859</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="C269" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="D269" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="E269" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="F269" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1317603.388120859</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="C270" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="D270" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="E270" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="F270" t="n">
-        <v>3052.4335</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1317603.388120859</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="C271" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="D271" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="E271" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="F271" t="n">
-        <v>521</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1317082.388120859</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="C272" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="D272" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="E272" t="n">
-        <v>71.81</v>
-      </c>
-      <c r="F272" t="n">
-        <v>122.7686</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1317082.388120859</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>71.64</v>
-      </c>
-      <c r="C273" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="D273" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="E273" t="n">
-        <v>71.64</v>
-      </c>
-      <c r="F273" t="n">
-        <v>1397.23092433</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1315685.157196529</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="C274" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="D274" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="E274" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3800</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1315685.157196529</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="C275" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="D275" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="E275" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="F275" t="n">
-        <v>18</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1315685.157196529</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="C276" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="D276" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="E276" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F276" t="n">
-        <v>14588.2892</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1330273.446396529</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="C277" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="D277" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="E277" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="F277" t="n">
-        <v>125.15644555</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1330148.289950979</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="C278" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="D278" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="E278" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="F278" t="n">
-        <v>16.804</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1330148.289950979</v>
-      </c>
-      <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C279" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D279" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E279" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F279" t="n">
-        <v>3008.1816</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1333156.471550979</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C280" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D280" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E280" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F280" t="n">
-        <v>9284.3853</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1333156.471550979</v>
-      </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C281" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D281" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E281" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F281" t="n">
-        <v>3362.5087</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1333156.471550979</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C282" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="D282" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="E282" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F282" t="n">
-        <v>51043.4872</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1282112.984350979</v>
-      </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="C283" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="D283" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="E283" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="F283" t="n">
-        <v>4164.3426</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-1286277.326950979</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="C284" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="D284" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="E284" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="F284" t="n">
-        <v>40</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-1286317.326950979</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="C285" t="n">
-        <v>71.70999999999999</v>
-      </c>
-      <c r="D285" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="E285" t="n">
-        <v>71.70999999999999</v>
-      </c>
-      <c r="F285" t="n">
-        <v>29977.7821</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-1256339.544850979</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="C286" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="D286" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="E286" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="F286" t="n">
-        <v>433</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-1255906.544850979</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="C287" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="D287" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="E287" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="F287" t="n">
-        <v>623.3203</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-1255906.544850979</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="C288" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="D288" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="E288" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="F288" t="n">
-        <v>18898.5785</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-1237007.966350979</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="C289" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="D289" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="E289" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="F289" t="n">
-        <v>742.6319</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-1237007.966350979</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="C290" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="D290" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="E290" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="F290" t="n">
-        <v>1080.63</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-1237007.966350979</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="C291" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="D291" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="E291" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="F291" t="n">
-        <v>529.8618</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1237537.828150979</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C292" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D292" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E292" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F292" t="n">
-        <v>40417.7894</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-1197120.038750979</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C293" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D293" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E293" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F293" t="n">
-        <v>42883.7613</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-1197120.038750979</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C294" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D294" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E294" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F294" t="n">
-        <v>110255.9556</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-1086864.083150979</v>
-      </c>
-      <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C295" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="D295" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="E295" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F295" t="n">
-        <v>37357.962</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-1086864.083150979</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="C296" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="D296" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="E296" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="F296" t="n">
-        <v>846.20182977</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-1086017.881321209</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="C297" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="D297" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="E297" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="F297" t="n">
-        <v>12300</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-1086017.881321209</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="C298" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="D298" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="E298" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="F298" t="n">
-        <v>2244.7638</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-1086017.881321209</v>
-      </c>
-      <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="C299" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="D299" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="E299" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="F299" t="n">
-        <v>345.8716</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-1086017.881321209</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="C300" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="D300" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="E300" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="F300" t="n">
-        <v>12162.0859</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-1073855.795421209</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C301" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="D301" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="E301" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F301" t="n">
-        <v>14134.2557</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-1073855.795421209</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="C302" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="D302" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="E302" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="F302" t="n">
-        <v>14339.437</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1059516.358421209</v>
-      </c>
-      <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C303" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="D303" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E303" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F303" t="n">
-        <v>3999.2965</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-1055517.061921209</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>72.61</v>
-      </c>
-      <c r="C304" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="D304" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="E304" t="n">
-        <v>72.53</v>
-      </c>
-      <c r="F304" t="n">
-        <v>28979.1586</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-1026537.903321209</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="C305" t="n">
-        <v>72.92</v>
-      </c>
-      <c r="D305" t="n">
-        <v>72.92</v>
-      </c>
-      <c r="E305" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="F305" t="n">
-        <v>36977.6002</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-989560.3031212091</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="C306" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="D306" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="E306" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1265.5721</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-990825.8752212091</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C307" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="D307" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="E307" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="F307" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-990825.8752212091</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>72.66</v>
-      </c>
-      <c r="C308" t="n">
-        <v>72.66</v>
-      </c>
-      <c r="D308" t="n">
-        <v>72.66</v>
-      </c>
-      <c r="E308" t="n">
-        <v>72.66</v>
-      </c>
-      <c r="F308" t="n">
-        <v>8</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-990817.8752212091</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="C309" t="n">
-        <v>72.62</v>
-      </c>
-      <c r="D309" t="n">
-        <v>72.62</v>
-      </c>
-      <c r="E309" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1892.7065</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-992710.5817212091</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>72.62</v>
-      </c>
-      <c r="C310" t="n">
-        <v>72.62</v>
-      </c>
-      <c r="D310" t="n">
-        <v>72.62</v>
-      </c>
-      <c r="E310" t="n">
-        <v>72.62</v>
-      </c>
-      <c r="F310" t="n">
-        <v>3700</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-992710.5817212091</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="C311" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="D311" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="E311" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="F311" t="n">
-        <v>67.5831</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-992642.9986212091</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>72.31999999999999</v>
-      </c>
-      <c r="C312" t="n">
-        <v>72.31999999999999</v>
-      </c>
-      <c r="D312" t="n">
-        <v>72.31999999999999</v>
-      </c>
-      <c r="E312" t="n">
-        <v>72.31999999999999</v>
-      </c>
-      <c r="F312" t="n">
-        <v>14755.2456</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-1007398.244221209</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>72.33</v>
-      </c>
-      <c r="C313" t="n">
-        <v>72.33</v>
-      </c>
-      <c r="D313" t="n">
-        <v>72.33</v>
-      </c>
-      <c r="E313" t="n">
-        <v>72.33</v>
-      </c>
-      <c r="F313" t="n">
-        <v>13279.721</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-994118.5232212091</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C314" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="D314" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E314" t="n">
-        <v>72.39</v>
-      </c>
-      <c r="F314" t="n">
-        <v>24091.8964</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-970026.6268212091</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>72.59</v>
-      </c>
-      <c r="C315" t="n">
-        <v>72.79000000000001</v>
-      </c>
-      <c r="D315" t="n">
-        <v>72.79000000000001</v>
-      </c>
-      <c r="E315" t="n">
-        <v>72.54000000000001</v>
-      </c>
-      <c r="F315" t="n">
-        <v>69097.11040000001</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-900929.5164212091</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>72.56</v>
-      </c>
-      <c r="C316" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="D316" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="E316" t="n">
-        <v>72.56</v>
-      </c>
-      <c r="F316" t="n">
-        <v>38056.566</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-938986.0824212091</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="C317" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="D317" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="E317" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F317" t="n">
-        <v>53982.8891</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-885003.1933212091</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="C318" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="D318" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="E318" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F318" t="n">
-        <v>735.0798</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-885003.1933212091</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="C319" t="n">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="D319" t="n">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="E319" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F319" t="n">
-        <v>52363.9117</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-832639.2816212091</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="C320" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="D320" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="E320" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1915.5447</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-834554.8263212091</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
-        <v>1</v>
+        <v>1.010183173143892</v>
       </c>
       <c r="M320" t="inlineStr"/>
     </row>
@@ -11171,7 +11879,7 @@
         <v>-788090.4447212091</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11204,7 +11912,7 @@
         <v>-814298.8262212091</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11237,7 +11945,7 @@
         <v>-854256.9210212091</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11270,7 +11978,7 @@
         <v>-896005.4941212091</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11963,7 +12671,7 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11996,7 +12704,7 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -14669,7 +15377,7 @@
         <v>-1209342.575167229</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14702,7 +15410,7 @@
         <v>-1210478.575167229</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14735,7 +15443,7 @@
         <v>-1209644.082767229</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14801,7 +15509,7 @@
         <v>-1210058.082767229</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14834,7 +15542,7 @@
         <v>-1213058.082767229</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14966,7 +15674,7 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15296,14 +16004,10 @@
         <v>-1622473.52076723</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>71.41</v>
-      </c>
-      <c r="J447" t="n">
-        <v>71.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
@@ -15333,19 +16037,11 @@
         <v>-1622465.52076723</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>71.41</v>
-      </c>
-      <c r="J448" t="n">
-        <v>71.41</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15374,19 +16070,11 @@
         <v>-1623169.29066723</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="J449" t="n">
-        <v>71.41</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15448,14 +16136,10 @@
         <v>-1594513.79436723</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="J451" t="n">
-        <v>71.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
@@ -15485,19 +16169,11 @@
         <v>-1598060.83226723</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>71.36</v>
-      </c>
-      <c r="J452" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15526,19 +16202,11 @@
         <v>-1458547.78008739</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>71.31999999999999</v>
-      </c>
-      <c r="J453" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15897,10 +16565,14 @@
         <v>-1460689.36593575</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="J464" t="n">
+        <v>71.52</v>
+      </c>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
@@ -15933,8 +16605,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15966,8 +16644,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16029,11 +16713,17 @@
         <v>-1480256.90103575</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>71.48</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16062,11 +16752,17 @@
         <v>-1488916.36783575</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>71.42</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
